--- a/data/Comments.xlsx
+++ b/data/Comments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lafe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D72E73B-73B6-463A-A88C-B27A72766FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08592C6-7B72-416C-85BB-CFB3058E926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="1620" windowWidth="10008" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>comment_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给了6分，1分是溢出来的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,29 +376,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21307177</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21307177</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
